--- a/pkg.xlsx
+++ b/pkg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TransitusPC-21\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95415ED-4A96-4985-90A9-BFE53B8C2CAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8015E60-252B-4828-A83A-96F710B6AF15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="79">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -251,6 +251,12 @@
   </si>
   <si>
     <t>Approved</t>
+  </si>
+  <si>
+    <t>Rejected</t>
+  </si>
+  <si>
+    <t>Not need</t>
   </si>
 </sst>
 </file>
@@ -624,7 +630,7 @@
   <dimension ref="A1:J57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G73" sqref="G73"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1032,7 +1038,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F33" t="s">
         <v>50</v>
       </c>
@@ -1043,7 +1049,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F34" t="s">
         <v>52</v>
       </c>
@@ -1054,7 +1060,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F35" t="s">
         <v>54</v>
       </c>
@@ -1065,7 +1071,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F36" t="s">
         <v>56</v>
       </c>
@@ -1076,7 +1082,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F37" t="s">
         <v>59</v>
       </c>
@@ -1087,7 +1093,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F38" t="s">
         <v>70</v>
       </c>
@@ -1098,7 +1104,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>71</v>
       </c>
@@ -1115,10 +1121,13 @@
         <v>14</v>
       </c>
       <c r="I39" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="J39" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F40" t="s">
         <v>15</v>
       </c>
@@ -1129,7 +1138,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F41" t="s">
         <v>18</v>
       </c>
@@ -1140,7 +1149,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F42" t="s">
         <v>21</v>
       </c>
@@ -1151,7 +1160,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F43" t="s">
         <v>24</v>
       </c>
@@ -1162,7 +1171,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F44" t="s">
         <v>27</v>
       </c>
@@ -1173,7 +1182,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F45" t="s">
         <v>30</v>
       </c>
@@ -1184,7 +1193,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F46" t="s">
         <v>33</v>
       </c>
@@ -1195,7 +1204,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F47" t="s">
         <v>36</v>
       </c>
@@ -1206,7 +1215,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F48" t="s">
         <v>39</v>
       </c>
